--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B84271-D822-469C-A3FD-8B524B2EA166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DE7C5-F254-49AB-8DD1-B3C7E10BD456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -578,7 +578,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -606,15 +606,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -936,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +962,7 @@
       <c r="D1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -983,11 +984,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -1040,7 +1041,7 @@
         <v>85</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="21"/>
       <c r="M7" s="19" t="s">
         <v>86</v>
       </c>
@@ -1085,11 +1086,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
@@ -1103,6 +1104,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="16"/>
       <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
         <v>73</v>
@@ -1121,16 +1123,16 @@
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="2"/>
@@ -1146,7 +1148,7 @@
       <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="2"/>
@@ -1162,7 +1164,7 @@
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="2"/>
@@ -1178,7 +1180,7 @@
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="2"/>
@@ -1202,49 +1204,49 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="21"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="21"/>
       <c r="L21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="22" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="21"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
@@ -1258,18 +1260,18 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
@@ -1342,7 +1344,7 @@
       <c r="Q30" s="12"/>
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="22" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="2"/>
@@ -1354,7 +1356,7 @@
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="22" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="2"/>
@@ -1366,7 +1368,7 @@
       <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="22" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="2"/>
@@ -1378,7 +1380,7 @@
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="22" t="s">
         <v>103</v>
       </c>
       <c r="D34" s="2"/>
@@ -1390,7 +1392,7 @@
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="22" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="2"/>
@@ -1402,7 +1404,7 @@
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="2"/>
@@ -1414,7 +1416,7 @@
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>106</v>
       </c>
       <c r="D37" s="2"/>
@@ -1426,7 +1428,7 @@
       <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="2"/>
@@ -1438,7 +1440,7 @@
       <c r="Q38" s="18"/>
     </row>
     <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="2"/>
@@ -1450,7 +1452,7 @@
       <c r="Q39" s="18"/>
     </row>
     <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D40" s="2"/>
@@ -1462,7 +1464,7 @@
       <c r="Q40" s="18"/>
     </row>
     <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="22" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="2"/>
@@ -1474,7 +1476,7 @@
       <c r="Q41" s="18"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="13"/>
@@ -1567,7 +1569,7 @@
       <c r="P46" s="5"/>
     </row>
     <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="22" t="s">
         <v>124</v>
       </c>
       <c r="F47" s="2"/>
@@ -1580,7 +1582,7 @@
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>125</v>
       </c>
       <c r="F48" s="2"/>
@@ -1807,7 +1809,7 @@
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="22" t="s">
         <v>128</v>
       </c>
       <c r="E63" s="2"/>
@@ -1818,7 +1820,7 @@
       <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="22" t="s">
         <v>129</v>
       </c>
       <c r="E64" s="2"/>
@@ -1830,7 +1832,7 @@
       <c r="O64" s="17"/>
     </row>
     <row r="65" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="22" t="s">
         <v>130</v>
       </c>
       <c r="E65" s="2"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DE7C5-F254-49AB-8DD1-B3C7E10BD456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A72FBC-9B35-48F7-947E-84E1FCB1A0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="136">
   <si>
     <t>Description</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Redoing inputOutputModule</t>
   </si>
   <si>
-    <t>René and Ivan</t>
-  </si>
-  <si>
     <t>Make sure that the back- and frontend can properly communicate (if I click this button, run this code)</t>
   </si>
   <si>
@@ -438,13 +435,19 @@
   </si>
   <si>
     <t>MAJOR BUILDS / MILESTONES</t>
+  </si>
+  <si>
+    <t>René and Aaron</t>
+  </si>
+  <si>
+    <t>Disaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +499,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +600,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -610,14 +641,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -935,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +1004,7 @@
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -984,11 +1023,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -998,7 +1037,7 @@
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -1030,6 +1069,7 @@
         <v>82</v>
       </c>
       <c r="F6" s="2"/>
+      <c r="G6" s="16"/>
       <c r="M6" s="19" t="s">
         <v>83</v>
       </c>
@@ -1086,11 +1126,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
@@ -1104,7 +1144,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="16"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="28"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
         <v>73</v>
@@ -1123,11 +1163,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
@@ -1138,6 +1178,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="11"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17" t="s">
         <v>93</v>
@@ -1154,6 +1196,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
         <v>94</v>
@@ -1170,6 +1214,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
       <c r="L18" s="18"/>
       <c r="M18" s="17" t="s">
         <v>95</v>
@@ -1186,6 +1232,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="11"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="L19" s="18"/>
       <c r="M19" s="17" t="s">
         <v>96</v>
@@ -1205,12 +1253,14 @@
       <c r="E20" s="19"/>
       <c r="F20" s="2"/>
       <c r="G20" s="21"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
+      <c r="M20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
@@ -1222,6 +1272,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="2"/>
       <c r="G21" s="21"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="L21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1233,6 +1285,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="2"/>
       <c r="G22" s="21"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -1240,6 +1294,8 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="21"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
@@ -1247,6 +1303,8 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="21"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
@@ -1260,18 +1318,18 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="26"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
@@ -1280,13 +1338,13 @@
         <v>97</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1345,139 +1403,139 @@
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="2"/>
       <c r="L31" s="18"/>
       <c r="M31" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2"/>
       <c r="L32" s="18"/>
       <c r="M32" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="2"/>
       <c r="L33" s="18"/>
       <c r="M33" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2"/>
       <c r="L34" s="18"/>
       <c r="M34" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2"/>
       <c r="L36" s="18"/>
       <c r="M36" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2"/>
       <c r="L37" s="18"/>
       <c r="M37" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2"/>
       <c r="L38" s="18"/>
       <c r="M38" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
     </row>
     <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2"/>
       <c r="L39" s="18"/>
       <c r="M39" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
     </row>
     <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2"/>
       <c r="L40" s="18"/>
       <c r="M40" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
     </row>
     <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="2"/>
       <c r="L41" s="18"/>
       <c r="M41" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P41" s="18"/>
       <c r="Q41" s="18"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="3"/>
@@ -1489,7 +1547,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="M42" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
@@ -1546,6 +1604,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11"/>
+      <c r="G45" s="28"/>
       <c r="M45" s="19" t="s">
         <v>57</v>
       </c>
@@ -1561,6 +1620,7 @@
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
+      <c r="H46" s="11"/>
       <c r="M46" s="17" t="s">
         <v>48</v>
       </c>
@@ -1570,12 +1630,12 @@
     </row>
     <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="M47" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
@@ -1583,12 +1643,12 @@
     </row>
     <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="M48" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
@@ -1603,7 +1663,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="11"/>
       <c r="M49" s="17" t="s">
         <v>55</v>
       </c>
@@ -1633,6 +1693,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="2"/>
+      <c r="G52" s="11"/>
       <c r="M52" s="17" t="s">
         <v>40</v>
       </c>
@@ -1647,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="19"/>
+      <c r="F53" s="11"/>
       <c r="M53" s="17" t="s">
         <v>41</v>
       </c>
@@ -1655,16 +1716,23 @@
       <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="M54" s="17" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N54" s="17"/>
@@ -1797,7 +1865,7 @@
       <c r="D62" s="13"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -1810,35 +1878,35 @@
     </row>
     <row r="63" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2"/>
       <c r="M63" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="M64" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
     </row>
     <row r="65" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="M65" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
@@ -1910,30 +1978,27 @@
       <c r="N69" s="19"/>
       <c r="O69" s="19"/>
     </row>
-    <row r="70" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+    <row r="70" spans="1:15" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K70" s="13"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="71" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="13"/>
-      <c r="M71" s="17" t="s">
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="M71" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
     </row>
     <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
@@ -1999,6 +2064,11 @@
         <v>77</v>
       </c>
     </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M1:O1"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A72FBC-9B35-48F7-947E-84E1FCB1A0AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE0CD39-9373-4BB8-A51B-35C998CB1CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -609,7 +609,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -643,17 +643,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
@@ -976,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,11 +1024,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -1126,11 +1127,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
@@ -1144,7 +1145,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="16"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="26"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
         <v>73</v>
@@ -1163,11 +1164,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
@@ -1178,8 +1179,8 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17" t="s">
         <v>93</v>
@@ -1196,8 +1197,8 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
         <v>94</v>
@@ -1214,8 +1215,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="L18" s="18"/>
       <c r="M18" s="17" t="s">
         <v>95</v>
@@ -1232,8 +1233,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="L19" s="18"/>
       <c r="M19" s="17" t="s">
         <v>96</v>
@@ -1253,14 +1254,14 @@
       <c r="E20" s="19"/>
       <c r="F20" s="2"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
@@ -1272,8 +1273,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="2"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="L21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1285,8 +1286,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="2"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -1294,8 +1295,8 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
@@ -1303,8 +1304,8 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
@@ -1325,11 +1326,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
@@ -1344,7 +1345,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="29"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1604,7 +1605,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="26"/>
       <c r="M45" s="19" t="s">
         <v>57</v>
       </c>
@@ -1616,11 +1617,11 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="11"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
       <c r="M46" s="17" t="s">
         <v>48</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>123</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="25"/>
       <c r="M47" s="17" t="s">
         <v>126</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>124</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="G48" s="25"/>
       <c r="M48" s="17" t="s">
         <v>125</v>
       </c>
@@ -1655,19 +1656,26 @@
       <c r="P48" s="18"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="11"/>
-      <c r="M49" s="17" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N49" s="17"/>
+      <c r="N49" s="29"/>
       <c r="O49" s="17"/>
       <c r="P49" s="5"/>
     </row>
@@ -1716,23 +1724,23 @@
       <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="31" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="29" t="s">
         <v>42</v>
       </c>
       <c r="N54" s="17"/>
@@ -1978,27 +1986,27 @@
       <c r="N69" s="19"/>
       <c r="O69" s="19"/>
     </row>
-    <row r="70" spans="1:15" s="30" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="32" t="s">
+    <row r="70" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+    <row r="71" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="28" t="s">
         <v>35</v>
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
-      <c r="M71" s="31" t="s">
+      <c r="M71" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
     </row>
     <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
@@ -2065,7 +2073,7 @@
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="31" t="s">
         <v>135</v>
       </c>
     </row>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE0CD39-9373-4BB8-A51B-35C998CB1CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEDE035-9168-41A2-89A3-A9D7B9B012CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9840" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>Description</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>Disaster</t>
+  </si>
+  <si>
+    <t>Expand 2D engine with buttons, slider, textfields and a file explorer</t>
   </si>
 </sst>
 </file>
@@ -978,7 +981,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>3</v>
@@ -1717,6 +1720,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="11"/>
+      <c r="G53" s="26"/>
       <c r="M53" s="17" t="s">
         <v>41</v>
       </c>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEDE035-9168-41A2-89A3-A9D7B9B012CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9946DE1D-1F42-4AB2-91A8-29141215BEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9840" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -981,7 +981,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9946DE1D-1F42-4AB2-91A8-29141215BEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA5206F-CAD5-4469-9534-DFACF8019635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14610" windowHeight="9840" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -653,6 +653,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,7 +982,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1012,7 @@
       <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1027,11 +1028,11 @@
         <v>19</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -1130,11 +1131,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
@@ -1167,11 +1168,11 @@
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
@@ -1260,11 +1261,11 @@
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="34" t="s">
+      <c r="M20" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
@@ -1329,11 +1330,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="34" t="s">
+      <c r="M25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
@@ -1800,9 +1801,9 @@
       <c r="C58"/>
       <c r="E58" s="19"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="J58"/>
       <c r="M58" s="17" t="s">
         <v>49</v>
@@ -2032,7 +2033,7 @@
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="32"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA5206F-CAD5-4469-9534-DFACF8019635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4E7CB-8506-4C48-9E53-3BBF033D0D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14820" windowHeight="9480" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -982,7 +982,7 @@
   <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4E7CB-8506-4C48-9E53-3BBF033D0D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A02F3F-2DCE-470D-BA02-A8F5F5268427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14820" windowHeight="9480" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -311,9 +311,6 @@
     <t>Resetting after hitting water</t>
   </si>
   <si>
-    <t>Editor</t>
-  </si>
-  <si>
     <t>Redo main menu</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
   </si>
   <si>
     <t>Redo resetting after hitting the water UI</t>
-  </si>
-  <si>
-    <t>Create editor UI (loading and saving options as well as key bindings explained)</t>
   </si>
   <si>
     <t>Redoing inputOutputModule</t>
@@ -979,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1036,7 @@
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -1187,7 +1181,7 @@
       <c r="H16" s="26"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -1205,7 +1199,7 @@
       <c r="H17" s="26"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -1223,192 +1217,187 @@
       <c r="H18" s="26"/>
       <c r="L18" s="18"/>
       <c r="M18" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="26"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="26"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="17" t="s">
+      <c r="I19" s="26"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
+      <c r="A20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="2"/>
       <c r="G20" s="21"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="19"/>
+        <v>90</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="2"/>
       <c r="G21" s="21"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="L21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="19"/>
+        <v>91</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="21"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
     </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+    <row r="23" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
     </row>
     <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="A24" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
+      <c r="A25" s="14"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    </row>
+    <row r="26" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="20"/>
+      <c r="M27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>1</v>
-      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="20"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2"/>
       <c r="L31" s="18"/>
@@ -1432,7 +1421,7 @@
     </row>
     <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2"/>
       <c r="L33" s="18"/>
@@ -1456,7 +1445,7 @@
     </row>
     <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="2"/>
       <c r="L35" s="18"/>
@@ -1504,279 +1493,294 @@
     </row>
     <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2"/>
       <c r="L39" s="18"/>
       <c r="M39" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
     </row>
-    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-    </row>
-    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+    </row>
+    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="M41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="A42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
       <c r="M42" s="17" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="M43" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
+        <v>134</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="M43" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>29</v>
+      <c r="A44" t="s">
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="M44" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="26"/>
-      <c r="M45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="25"/>
+      <c r="M45" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="18"/>
+    </row>
+    <row r="46" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
       <c r="M46" s="17" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="2"/>
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="M47" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="N47" s="17"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="29"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="25"/>
-      <c r="M48" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="29"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="5"/>
+      <c r="P47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="M50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="26"/>
+      <c r="M51" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="11"/>
-      <c r="M52" s="17" t="s">
-        <v>40</v>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="26"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="13"/>
       <c r="M53" s="17" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="13"/>
-      <c r="M55" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K56" s="13"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-    </row>
-    <row r="57" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+      <c r="K54" s="13"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+    </row>
+    <row r="55" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56"/>
+      <c r="M56" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="12"/>
+    </row>
+    <row r="57" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -1791,100 +1795,86 @@
       <c r="O57" s="19"/>
       <c r="P57" s="12"/>
     </row>
-    <row r="58" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
+    <row r="58" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58"/>
       <c r="C58"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
       <c r="J58"/>
-      <c r="M58" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="12"/>
-    </row>
-    <row r="59" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="12"/>
-    </row>
-    <row r="60" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B59" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="M59" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="M60" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+    </row>
+    <row r="61" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="M61" s="17" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+    <row r="62" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
       <c r="M62" s="17" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
@@ -1894,192 +1884,169 @@
         <v>127</v>
       </c>
       <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
       <c r="M63" s="17" t="s">
         <v>130</v>
       </c>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
       <c r="M64" s="17" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
       <c r="M65" s="17" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
       <c r="K66" s="13"/>
       <c r="M66" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
       <c r="K67" s="13"/>
-      <c r="M67" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="13"/>
-      <c r="M68" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K69" s="13"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-    </row>
-    <row r="70" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="30" t="s">
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+    </row>
+    <row r="68" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+    <row r="69" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B69" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="M71" s="29" t="s">
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="M69" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-    </row>
-    <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+    </row>
+    <row r="71" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="72" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B72" t="s">
         <v>68</v>
       </c>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="32"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-    </row>
-    <row r="75" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="32"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+    </row>
+    <row r="73" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>75</v>
+      <c r="A79" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>76</v>
+      <c r="A80" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>135</v>
+      <c r="A81" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2087,8 +2054,8 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF4E7CB-8506-4C48-9E53-3BBF033D0D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA1EA2D-C621-4795-958C-A0CAFEE009BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14820" windowHeight="9480" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
   <si>
     <t>Description</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Matthijs</t>
   </si>
   <si>
-    <t>Connection UI and backend</t>
-  </si>
-  <si>
     <t>Redo UI</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>Who?</t>
   </si>
   <si>
-    <t>René, Jean and Ivan</t>
-  </si>
-  <si>
     <t>Aaron and Ivan</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
   </si>
   <si>
     <t>Redoing inputOutputModule</t>
-  </si>
-  <si>
-    <t>Make sure that the back- and frontend can properly communicate (if I click this button, run this code)</t>
   </si>
   <si>
     <t>Show a triangle</t>
@@ -612,7 +603,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -659,6 +650,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
@@ -979,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,38 +997,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
@@ -1042,65 +1041,67 @@
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>133</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="M4" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="M5" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="16"/>
       <c r="M6" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="21"/>
       <c r="M7" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="M8" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -1119,20 +1120,20 @@
     </row>
     <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
       <c r="M13" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
@@ -1141,7 +1142,7 @@
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>2</v>
@@ -1152,14 +1153,14 @@
       <c r="F14" s="26"/>
       <c r="L14" s="12"/>
       <c r="M14" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>3</v>
@@ -1169,7 +1170,7 @@
       <c r="F15" s="11"/>
       <c r="L15" s="12"/>
       <c r="M15" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
@@ -1178,16 +1179,17 @@
     </row>
     <row r="16" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -1196,16 +1198,17 @@
     </row>
     <row r="17" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="11"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -1214,218 +1217,215 @@
     </row>
     <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="11"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="L18" s="18"/>
       <c r="M18" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+    </row>
+    <row r="20" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="L20" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="35" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N20" s="35"/>
       <c r="O20" s="35"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>89</v>
-      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="L21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="A24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="20"/>
+      <c r="M24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="A25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="M25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>1</v>
+      <c r="D27" s="2"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="20"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2"/>
       <c r="L31" s="18"/>
       <c r="M31" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2"/>
       <c r="L32" s="18"/>
       <c r="M32" s="19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -1437,658 +1437,566 @@
       <c r="D33" s="2"/>
       <c r="L33" s="18"/>
       <c r="M33" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2"/>
       <c r="L34" s="18"/>
       <c r="M34" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2"/>
       <c r="L36" s="18"/>
       <c r="M36" s="19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
-    <row r="37" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-    </row>
-    <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-    </row>
-    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+    </row>
+    <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="M38" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="M39" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="L40" s="18"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="M40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-    </row>
-    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="M41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="25"/>
       <c r="M42" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
-    </row>
-    <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43" s="2"/>
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F43" s="2"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
+      <c r="G43" s="25"/>
       <c r="M43" s="17" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="M44" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="N44" s="17"/>
+      <c r="A44" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="29"/>
       <c r="O44" s="17"/>
+      <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="26"/>
-      <c r="M45" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="M45" s="19"/>
       <c r="N45" s="19"/>
       <c r="O45" s="19"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="M46" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="5"/>
-    </row>
-    <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>123</v>
+      <c r="P45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="11"/>
       <c r="M47" s="17" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="18"/>
-    </row>
-    <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="25"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="26"/>
       <c r="M48" s="17" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="18"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
       <c r="M49" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="29"/>
+        <v>40</v>
+      </c>
+      <c r="N49" s="17"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="5"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="5"/>
-    </row>
-    <row r="51" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="13"/>
+      <c r="M50" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:16" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="36"/>
+    </row>
+    <row r="53" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="M53" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="36"/>
+    </row>
+    <row r="54" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="36"/>
+    </row>
+    <row r="55" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="11"/>
-      <c r="M52" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="26"/>
-      <c r="M53" s="17" t="s">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="M56" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="13"/>
-      <c r="M55" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K56" s="13"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-    </row>
-    <row r="57" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="12"/>
-    </row>
-    <row r="58" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="M57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="M58" s="17" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="12"/>
-    </row>
-    <row r="59" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="12"/>
-    </row>
-    <row r="60" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A60" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
+    </row>
+    <row r="59" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="M59" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+    </row>
+    <row r="60" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="M60" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="M61" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="M62" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="2"/>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="13"/>
       <c r="M63" s="17" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="M64" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-    </row>
-    <row r="65" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="M65" s="17" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K64" s="13"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+    </row>
+    <row r="65" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="M66" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+    </row>
+    <row r="68" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="32"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="M66" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="M67" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="13"/>
-      <c r="M68" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="K69" s="13"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-    </row>
-    <row r="70" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A70" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="M71" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-    </row>
-    <row r="73" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="32"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-    </row>
-    <row r="75" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>135</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M25:O25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA1EA2D-C621-4795-958C-A0CAFEE009BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FBA83-46CE-4C6B-93D0-2E063DD11A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15030" windowHeight="9120" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="138">
   <si>
     <t>Description</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Shooting the ball</t>
   </si>
   <si>
-    <t>Resetting after hitting water</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -428,13 +425,28 @@
     <t>MAJOR BUILDS / MILESTONES</t>
   </si>
   <si>
-    <t>René and Aaron</t>
-  </si>
-  <si>
     <t>Disaster</t>
   </si>
   <si>
     <t>Expand 2D engine with buttons, slider, textfields and a file explorer</t>
+  </si>
+  <si>
+    <t>Testing / experiments</t>
+  </si>
+  <si>
+    <t>Second Second order Verlet solver (velocity)</t>
+  </si>
+  <si>
+    <t>Implement a second second order Verlet solver, called velocity Verlet solver</t>
+  </si>
+  <si>
+    <t>René and Ivan</t>
+  </si>
+  <si>
+    <t>Jean, Ivan</t>
+  </si>
+  <si>
+    <t>Resetting after hitting water (non-functional, that's for phase 3)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -645,9 +657,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -656,6 +665,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -978,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:T80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1034,7 @@
       <c r="H1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1027,11 +1044,11 @@
         <v>18</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -1041,7 +1058,7 @@
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -1094,17 +1111,20 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
     </row>
-    <row r="8" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="M8" s="19" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="M8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P9" s="18"/>
@@ -1124,7 +1144,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -1132,16 +1152,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1163,23 +1183,26 @@
         <v>5</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="35" t="s">
+      <c r="M15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>87</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1189,7 +1212,7 @@
       <c r="I16" s="26"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -1199,6 +1222,9 @@
     <row r="17" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>88</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>3</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1208,7 +1234,7 @@
       <c r="I17" s="26"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -1217,7 +1243,10 @@
     </row>
     <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>89</v>
+        <v>137</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1227,7 +1256,7 @@
       <c r="I18" s="26"/>
       <c r="L18" s="18"/>
       <c r="M18" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -1235,8 +1264,8 @@
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>90</v>
+      <c r="A19" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -1244,17 +1273,17 @@
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
-      <c r="L19" s="36"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
@@ -1270,20 +1299,20 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1292,7 +1321,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="1"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="1"/>
       <c r="L21" s="12"/>
       <c r="M21" s="13" t="s">
@@ -1311,7 +1340,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -1327,7 +1356,7 @@
       <c r="O24" s="19"/>
     </row>
     <row r="25" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -1347,140 +1376,140 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>96</v>
+      <c r="A26" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="D26" s="2"/>
       <c r="L26" s="18"/>
       <c r="M26" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>97</v>
+      <c r="A27" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="D27" s="2"/>
       <c r="L27" s="18"/>
       <c r="M27" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>100</v>
+      <c r="A28" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="D28" s="2"/>
       <c r="L28" s="18"/>
       <c r="M28" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>99</v>
+      <c r="A29" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="D29" s="2"/>
       <c r="L29" s="18"/>
       <c r="M29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>98</v>
+      <c r="A30" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="D30" s="2"/>
       <c r="L30" s="18"/>
       <c r="M30" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>101</v>
+      <c r="A31" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="D31" s="2"/>
       <c r="L31" s="18"/>
       <c r="M31" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>102</v>
+      <c r="A32" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="D32" s="2"/>
       <c r="L32" s="18"/>
       <c r="M32" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>103</v>
+      <c r="A33" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="D33" s="2"/>
       <c r="L33" s="18"/>
       <c r="M33" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>104</v>
+      <c r="A34" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="D34" s="2"/>
       <c r="L34" s="18"/>
       <c r="M34" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>105</v>
+      <c r="A35" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="D35" s="2"/>
       <c r="L35" s="18"/>
       <c r="M35" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>116</v>
+      <c r="A36" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="D36" s="2"/>
       <c r="L36" s="18"/>
       <c r="M36" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>118</v>
+      <c r="A37" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="3"/>
@@ -1492,13 +1521,13 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="M37" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
     </row>
     <row r="38" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -1518,7 +1547,7 @@
       <c r="O38" s="17"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B39" t="s">
@@ -1540,11 +1569,11 @@
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>133</v>
+      <c r="A40" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="16"/>
@@ -1559,7 +1588,7 @@
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
@@ -1576,26 +1605,26 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>120</v>
+      <c r="A42" s="42" t="s">
+        <v>119</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="25"/>
       <c r="M42" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>121</v>
+      <c r="A43" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="25"/>
       <c r="M43" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
@@ -1640,7 +1669,7 @@
       <c r="O46" s="19"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
@@ -1654,210 +1683,206 @@
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="M48" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="26"/>
-      <c r="M48" s="17" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="26"/>
+      <c r="M49" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="29" t="s">
-        <v>40</v>
       </c>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="13"/>
-      <c r="M50" s="17" t="s">
-        <v>50</v>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
     </row>
-    <row r="51" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:16" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+    <row r="51" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="M51" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+    </row>
+    <row r="52" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:16" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="P52" s="36"/>
-    </row>
-    <row r="53" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B54" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="M53" s="29" t="s">
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="M54" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="36"/>
-    </row>
-    <row r="54" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P54" s="36"/>
-    </row>
-    <row r="55" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="35"/>
+    </row>
+    <row r="55" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="35"/>
+    </row>
+    <row r="56" spans="1:16" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="M56" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="11"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="M57" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>124</v>
-      </c>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
       <c r="M58" s="17" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>125</v>
+      <c r="A59" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
       <c r="M59" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>126</v>
+      <c r="A60" s="42" t="s">
+        <v>124</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="M60" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
+    <row r="61" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
       <c r="M61" s="17" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>24</v>
+      <c r="A62" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>32</v>
@@ -1872,123 +1897,158 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="M62" s="17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="A63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
       <c r="K63" s="13"/>
       <c r="M63" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
       <c r="K64" s="13"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-    </row>
-    <row r="65" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="30" t="s">
+      <c r="M64" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+    </row>
+    <row r="65" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+      <c r="O65" s="34"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K66" s="13"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+    </row>
+    <row r="67" spans="1:15" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+    <row r="68" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B68" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="M66" s="29" t="s">
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="M68" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-    </row>
-    <row r="68" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+    </row>
+    <row r="70" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>65</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="32"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-    </row>
-    <row r="70" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="32"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+    </row>
+    <row r="72" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>132</v>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FBA83-46CE-4C6B-93D0-2E063DD11A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3784D-4E53-4326-BA79-24DB84D48D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15030" windowHeight="9120" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,14 +667,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:T80"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,11 +1044,11 @@
         <v>18</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="40" t="s">
+      <c r="M13" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
     </row>
@@ -1188,12 +1188,16 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="11"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
     </row>
@@ -1210,6 +1214,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
       <c r="L16" s="18"/>
       <c r="M16" s="17" t="s">
         <v>90</v>
@@ -1232,6 +1237,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
         <v>91</v>
@@ -1254,6 +1260,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
       <c r="L18" s="18"/>
       <c r="M18" s="17" t="s">
         <v>92</v>
@@ -1299,11 +1306,11 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="41" t="s">
+      <c r="M20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
     </row>
@@ -1376,7 +1383,7 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="39" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="2"/>
@@ -1388,7 +1395,7 @@
       <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="39" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="2"/>
@@ -1400,7 +1407,7 @@
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="39" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="2"/>
@@ -1412,7 +1419,7 @@
       <c r="Q28" s="18"/>
     </row>
     <row r="29" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="39" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="2"/>
@@ -1424,7 +1431,7 @@
       <c r="Q29" s="18"/>
     </row>
     <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="39" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="2"/>
@@ -1436,7 +1443,7 @@
       <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="39" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="2"/>
@@ -1448,7 +1455,7 @@
       <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="39" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="2"/>
@@ -1460,7 +1467,7 @@
       <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="39" t="s">
         <v>102</v>
       </c>
       <c r="D33" s="2"/>
@@ -1472,7 +1479,7 @@
       <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="39" t="s">
         <v>103</v>
       </c>
       <c r="D34" s="2"/>
@@ -1484,7 +1491,7 @@
       <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="39" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="2"/>
@@ -1496,7 +1503,7 @@
       <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="39" t="s">
         <v>115</v>
       </c>
       <c r="D36" s="2"/>
@@ -1508,7 +1515,7 @@
       <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C37" s="13"/>
@@ -1605,7 +1612,7 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="39" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="2"/>
@@ -1618,7 +1625,7 @@
       <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="39" t="s">
         <v>120</v>
       </c>
       <c r="F43" s="2"/>
@@ -1846,7 +1853,7 @@
       <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="39" t="s">
         <v>123</v>
       </c>
       <c r="E59" s="2"/>
@@ -1857,7 +1864,7 @@
       <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="39" t="s">
         <v>124</v>
       </c>
       <c r="E60" s="2"/>
@@ -1869,7 +1876,7 @@
       <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="39" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="2"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3784D-4E53-4326-BA79-24DB84D48D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78DCE4A-5D85-4272-A550-5BF6707282CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78DCE4A-5D85-4272-A550-5BF6707282CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E2D7B-78C8-480F-80DE-63C114400C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15345" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +522,13 @@
     <font>
       <sz val="16"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,7 +622,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -675,6 +682,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
@@ -998,7 +1010,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1049,7 @@
       <c r="I1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1202,7 +1214,7 @@
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -1247,28 +1259,28 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="17" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC1495F-1D9F-483F-A6B1-7AD525823635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96162E27-51AA-4368-958C-54F76CBB25E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-108" yWindow="324" windowWidth="30936" windowHeight="16476" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Description</t>
   </si>
@@ -109,10 +109,6 @@
 “crazy golf” courses.</t>
   </si>
   <si>
-    <t>Allow obstacles and bodies of water in your course design. Implement a collisiondetector for determining whether the ball has fallen into a body of water or hit an
-obstacle, and handle these appropriately.</t>
-  </si>
-  <si>
     <t>Extend your AI bot player to handle complex maze-like courses with obstacles.
 Design and test your bot on courses which allow you to identify the limits of your
 bots capabilities.</t>
@@ -193,9 +189,6 @@
     <t>Results of experiments (without interpretation). Use tables and figures (including title and description of content)</t>
   </si>
   <si>
-    <t>Interpre results, answer research questions, why are these the results, use previous studies as backup, how does this advance the state-of-the-art. Discuss issues and possible solutions. What are limitations of the study? How to continue on this work?</t>
-  </si>
-  <si>
     <t>Summary of the study, answers to questions (no new info). How to continue with this research? Recommendations?</t>
   </si>
   <si>
@@ -260,6 +253,39 @@
   </si>
   <si>
     <t>Have something ready, even tough it's not optimal</t>
+  </si>
+  <si>
+    <t>René and Jean</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Aaron (with René helping)</t>
+  </si>
+  <si>
+    <t>Matthijs</t>
+  </si>
+  <si>
+    <t>Matthijs and Aaron</t>
+  </si>
+  <si>
+    <t>Matthijs, Aaron, Ivan</t>
+  </si>
+  <si>
+    <t>Interpret results, answer research questions, why are these the results, use previous studies as backup, how does this advance the state-of-the-art. 
+Discuss issues and possible solutions. What are limitations of the study? How to continue on this work?</t>
+  </si>
+  <si>
+    <t>Allow obstacles and bodies of water in your course design. Implement a collisiondetector for 
+determining whether the ball has fallen into a body of water or hit an
+obstacle, and handle these appropriately.</t>
+  </si>
+  <si>
+    <t>We have meetings Monday, Tueseday, Wednesday and Thursday at 20:00 at Friday, Saterday and Sunday at 10:00. Problems that require help should be mentioned before the meeting and help will be given outside of the meetings.</t>
   </si>
 </sst>
 </file>
@@ -477,7 +503,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,25 +547,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -559,19 +568,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7"/>
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
@@ -893,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,7 +941,7 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" style="26"/>
     <col min="9" max="9" width="8.88671875" style="26"/>
-    <col min="14" max="14" width="73.6640625" customWidth="1"/>
+    <col min="14" max="14" width="109" customWidth="1"/>
     <col min="16" max="16" width="57" customWidth="1"/>
   </cols>
   <sheetData>
@@ -916,165 +952,168 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="27">
         <f>DATE(2020, 6, 4)</f>
         <v>43986</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="27">
         <f>C1+3</f>
         <v>43989</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="27">
         <f t="shared" ref="E1:I1" si="0">D1+3</f>
         <v>43992</v>
       </c>
-      <c r="F1" s="30">
+      <c r="F1" s="27">
         <f t="shared" si="0"/>
         <v>43995</v>
       </c>
-      <c r="G1" s="30">
+      <c r="G1" s="27">
         <f t="shared" si="0"/>
         <v>43998</v>
       </c>
-      <c r="H1" s="30">
+      <c r="H1" s="27">
         <f t="shared" si="0"/>
         <v>44001</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="27">
         <f t="shared" si="0"/>
         <v>44004</v>
       </c>
-      <c r="J1" s="30">
+      <c r="J1" s="27">
         <f>DATE(2020, 6, 24)</f>
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+    <row r="2" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="L4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="26"/>
-      <c r="L5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" s="14" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="L6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="25"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="L7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>15</v>
+    <row r="8" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="14" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -1084,119 +1123,129 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="13"/>
+      <c r="L9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="L10" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="L11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+    </row>
+    <row r="12" spans="1:16" s="14" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>73</v>
+      </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
+      <c r="L12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="L13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>27</v>
-      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>28</v>
+    </row>
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
@@ -1206,386 +1255,470 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="16"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+    </row>
+    <row r="21" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="16"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="L23" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="L20" s="43" t="s">
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+    </row>
+    <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="L24" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="L25" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="L21" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="L22" s="44" t="s">
+      <c r="B26" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="L26" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-    </row>
-    <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="L27" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+    </row>
+    <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="L28" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="L23" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-    </row>
-    <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="L24" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-    </row>
-    <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="L25" s="44" t="s">
+      <c r="B29" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="L29" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-    </row>
-    <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+    </row>
+    <row r="30" spans="1:16" s="16" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="L26" s="44" t="s">
+      <c r="B30" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="L30" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+    </row>
+    <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="38"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="L31" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="L27" s="44" t="s">
+    <row r="32" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="L32" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="L28" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="L29" s="44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="L30" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="1:16" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-    </row>
-    <row r="33" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
+      <c r="B33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="L33" s="36" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>60</v>
-      </c>
+      <c r="A34" s="29"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="44" t="s">
-        <v>68</v>
-      </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-    </row>
-    <row r="36" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="K36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-    </row>
-    <row r="37" spans="1:16" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="10" t="s">
-        <v>4</v>
+    <row r="35" spans="1:16" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="13"/>
+      <c r="L37" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
-        <v>58</v>
+    <row r="38" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+    </row>
+    <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="K39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+    </row>
+    <row r="40" spans="1:16" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="26"/>
-      <c r="L40" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
-      <c r="B41" s="9"/>
+      <c r="K40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A42" s="10" t="s">
-        <v>59</v>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="26"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
-        <v>16</v>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="J43" s="26"/>
       <c r="L43" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+    </row>
+    <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -1597,104 +1730,118 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
-      <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="17"/>
+        <v>57</v>
+      </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
-        <v>61</v>
+    <row r="46" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="26"/>
-      <c r="L46" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+      <c r="L46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="26"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="17"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="H48" s="26"/>
       <c r="J48" s="26"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="26"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
+      <c r="L49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A50" s="29"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="H50" s="26"/>
       <c r="J50" s="26"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="17"/>
+      <c r="A51" s="29"/>
       <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
       <c r="J51" s="26"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
+      <c r="L51" s="12"/>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>8</v>
-      </c>
+    <row r="52" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -1703,40 +1850,39 @@
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>7</v>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
       <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
       <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="17"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
       <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
       <c r="J54" s="26"/>
-      <c r="O54" s="22"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47" t="s">
-        <v>72</v>
+      <c r="A55" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -1749,10 +1895,11 @@
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
       <c r="N55" s="18"/>
-      <c r="O55" s="22"/>
     </row>
     <row r="56" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
+      <c r="A56" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -1761,11 +1908,11 @@
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
-      <c r="O56" s="22"/>
-    </row>
-    <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-      <c r="B57"/>
+    </row>
+    <row r="57" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
@@ -1774,34 +1921,40 @@
       <c r="H57" s="26"/>
       <c r="I57" s="26"/>
       <c r="J57" s="26"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
-      <c r="B58" s="9"/>
+      <c r="O57" s="22"/>
+    </row>
+    <row r="58" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="26"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-      <c r="B59" s="9"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="22"/>
+    </row>
+    <row r="59" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="26"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
+      <c r="O59" s="22"/>
+    </row>
+    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
+      <c r="B60"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -1810,105 +1963,108 @@
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
       <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
       <c r="J61" s="26"/>
       <c r="L61" s="12"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
       <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
       <c r="J62" s="26"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="9"/>
+    <row r="63" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="26"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="9"/>
+    <row r="64" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="26"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
+    <row r="65" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="26"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
       <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
       <c r="J66" s="26"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="H67" s="26"/>
       <c r="J67" s="26"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-    </row>
-    <row r="68" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
       <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
       <c r="J68" s="26"/>
-    </row>
-    <row r="69" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
@@ -1917,27 +2073,31 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
+      <c r="A70" s="29"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="H70" s="26"/>
       <c r="J70" s="26"/>
-    </row>
-    <row r="71" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A71" s="10"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+    </row>
+    <row r="71" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
       <c r="J71" s="26"/>
     </row>
-    <row r="72" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
+    <row r="72" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
@@ -1946,41 +2106,72 @@
       <c r="H72" s="26"/>
       <c r="I72" s="26"/>
       <c r="J72" s="26"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73"/>
-      <c r="I73" s="26"/>
-      <c r="J73"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="J73" s="26"/>
+    </row>
+    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A74" s="10"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76"/>
+      <c r="I76" s="26"/>
+      <c r="J76"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="L30:N30"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L23:N23"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96162E27-51AA-4368-958C-54F76CBB25E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB96C8-1C55-46EA-B116-F54100327C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="324" windowWidth="30936" windowHeight="16476" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11328" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
 obstacle, and handle these appropriately.</t>
   </si>
   <si>
-    <t>We have meetings Monday, Tueseday, Wednesday and Thursday at 20:00 at Friday, Saterday and Sunday at 10:00. Problems that require help should be mentioned before the meeting and help will be given outside of the meetings.</t>
+    <t>We have meetings Monday, Tuesday, Wednesday and Thursday at 20:00 at Friday, Saturday and Sunday at 10:00. Problems that require help should be mentioned before the meeting and help will be given outside of the meetings.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -587,11 +587,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -607,7 +609,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
@@ -931,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,23 +986,23 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -1010,18 +1011,18 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
@@ -1030,16 +1031,16 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
       <c r="M4" s="43"/>
@@ -1077,11 +1078,11 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1100,11 +1101,11 @@
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1123,11 +1124,11 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1146,11 +1147,11 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="45" t="s">
+      <c r="L10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1169,11 +1170,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1192,11 +1193,11 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1215,11 +1216,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
@@ -1256,9 +1257,9 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1300,11 +1301,11 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="48" t="s">
+      <c r="L18" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1392,11 +1393,11 @@
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
@@ -1492,11 +1493,11 @@
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1684,8 +1685,8 @@
       <c r="C42" s="26"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EB96C8-1C55-46EA-B116-F54100327C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D92B4-A907-4845-A759-B64854BF275D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11328" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:N58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D92B4-A907-4845-A759-B64854BF275D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D983F3-3B29-48BA-90A0-5890548944A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11328" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-108" yWindow="324" windowWidth="30936" windowHeight="16476" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -492,6 +492,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -503,7 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -589,6 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,6 +629,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -933,7 +968,7 @@
   <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,11 +1021,11 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1011,10 +1046,10 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -1031,8 +1066,8 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -1056,6 +1091,8 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -1064,25 +1101,25 @@
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="1"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1093,19 +1130,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1116,19 +1153,19 @@
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="26"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1139,19 +1176,19 @@
       <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="26"/>
       <c r="F10" s="1"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1162,19 +1199,19 @@
       <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1185,19 +1222,19 @@
       <c r="B12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="26"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1208,26 +1245,26 @@
       <c r="B13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -1239,8 +1276,8 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="61"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1248,8 +1285,8 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1257,22 +1294,22 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -1292,20 +1329,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1316,8 +1353,8 @@
       <c r="B19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -1332,28 +1369,28 @@
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="24"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -1365,14 +1402,14 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="24"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -1384,28 +1421,32 @@
       <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="63"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="L24" s="36" t="s">
@@ -1421,6 +1462,8 @@
       <c r="B25" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="L25" s="36" t="s">
@@ -1436,6 +1479,8 @@
       <c r="B26" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="63"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
@@ -1450,6 +1495,8 @@
       <c r="B27" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="63"/>
       <c r="F27" s="24"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
@@ -1464,6 +1511,8 @@
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
@@ -1479,6 +1528,8 @@
       <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="63"/>
       <c r="G29" s="24"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
@@ -1491,13 +1542,15 @@
       <c r="B30" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="63"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="48" t="s">
+      <c r="L30" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1506,6 +1559,8 @@
       <c r="B31" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="62"/>
       <c r="G31" s="38"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -1514,12 +1569,14 @@
       </c>
     </row>
     <row r="32" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="62"/>
       <c r="G32" s="38"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -1528,12 +1585,14 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="62"/>
       <c r="G33" s="38"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -1543,8 +1602,8 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -1559,8 +1618,8 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -1578,8 +1637,8 @@
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="1"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -1600,8 +1659,8 @@
       <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1622,6 +1681,8 @@
       <c r="B38" s="40" t="s">
         <v>72</v>
       </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="61"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1633,6 +1694,8 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="61"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1641,8 +1704,8 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -1660,8 +1723,8 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="1"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -1682,8 +1745,8 @@
       <c r="B42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="45"/>
@@ -1704,8 +1767,8 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1720,8 +1783,8 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -1736,8 +1799,8 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="61"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1752,8 +1815,8 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
@@ -1769,8 +1832,8 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -1787,8 +1850,8 @@
         <v>59</v>
       </c>
       <c r="B48" s="17"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="61"/>
       <c r="H48" s="26"/>
       <c r="J48" s="26"/>
       <c r="K48" s="17"/>
@@ -1804,8 +1867,8 @@
       <c r="B49" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="61"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D92B4-A907-4845-A759-B64854BF275D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43149C-542F-43FD-AB4F-C3D340543F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11328" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView minimized="1" xWindow="53460" yWindow="5580" windowWidth="12870" windowHeight="8610" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -492,6 +492,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -503,7 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -589,6 +609,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,11 +1021,11 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1011,10 +1046,10 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -1031,8 +1066,8 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -1056,6 +1091,8 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -1064,25 +1101,25 @@
       <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="1"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1093,19 +1130,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="52" t="s">
+      <c r="L8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1116,19 +1153,19 @@
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="26"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="48" t="s">
+      <c r="L9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1139,19 +1176,19 @@
       <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="26"/>
       <c r="F10" s="1"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1162,19 +1199,19 @@
       <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1185,19 +1222,19 @@
       <c r="B12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="26"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1208,26 +1245,26 @@
       <c r="B13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -1239,8 +1276,8 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="53"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1248,8 +1285,8 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -1257,22 +1294,22 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -1292,20 +1329,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1316,8 +1353,8 @@
       <c r="B19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -1332,28 +1369,28 @@
       <c r="P19" s="13"/>
     </row>
     <row r="20" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="24"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="24"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -1365,14 +1402,14 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="24"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -1384,28 +1421,33 @@
       <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="L24" s="36" t="s">
@@ -1421,6 +1463,8 @@
       <c r="B25" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="L25" s="36" t="s">
@@ -1436,6 +1480,9 @@
       <c r="B26" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
@@ -1450,6 +1497,8 @@
       <c r="B27" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="55"/>
       <c r="F27" s="24"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
@@ -1464,6 +1513,8 @@
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="55"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
@@ -1479,6 +1530,8 @@
       <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="55"/>
       <c r="G29" s="24"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
@@ -1491,13 +1544,15 @@
       <c r="B30" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="55"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="48" t="s">
+      <c r="L30" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1506,6 +1561,8 @@
       <c r="B31" s="40" t="s">
         <v>71</v>
       </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="54"/>
       <c r="G31" s="38"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -1514,12 +1571,14 @@
       </c>
     </row>
     <row r="32" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="54"/>
       <c r="G32" s="38"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -1528,12 +1587,14 @@
       </c>
     </row>
     <row r="33" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="54"/>
       <c r="G33" s="38"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -1543,8 +1604,8 @@
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
@@ -1559,8 +1620,8 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
@@ -1578,8 +1639,8 @@
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="1"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -1600,8 +1661,8 @@
       <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1622,6 +1683,8 @@
       <c r="B38" s="40" t="s">
         <v>72</v>
       </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="53"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1633,6 +1696,8 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="53"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1641,8 +1706,8 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -1660,8 +1725,8 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="1"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
@@ -1682,8 +1747,8 @@
       <c r="B42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="45"/>
@@ -1704,8 +1769,8 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1720,8 +1785,8 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="53"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -1736,8 +1801,8 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="53"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1752,8 +1817,8 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
@@ -1769,8 +1834,8 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
@@ -1787,8 +1852,8 @@
         <v>59</v>
       </c>
       <c r="B48" s="17"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="53"/>
       <c r="H48" s="26"/>
       <c r="J48" s="26"/>
       <c r="K48" s="17"/>
@@ -1804,8 +1869,8 @@
       <c r="B49" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="53"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43149C-542F-43FD-AB4F-C3D340543F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A99238-C4F6-4DFE-8FF1-753C58A75F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="53460" yWindow="5580" windowWidth="12870" windowHeight="8610" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-108" yWindow="324" windowWidth="30936" windowHeight="16476" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:N12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,7 +1429,6 @@
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="55"/>
-      <c r="E23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1482,7 +1481,6 @@
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="55"/>
-      <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D983F3-3B29-48BA-90A0-5890548944A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C55438D-F4C7-4F52-9C42-85E1D48B21D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="324" windowWidth="30936" windowHeight="16476" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>We have meetings Monday, Tuesday, Wednesday and Thursday at 20:00 at Friday, Saturday and Sunday at 10:00. Problems that require help should be mentioned before the meeting and help will be given outside of the meetings.</t>
+  </si>
+  <si>
+    <t>Slightly behind</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +439,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -513,7 +521,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,8 +530,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -610,6 +619,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,22 +653,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Accent4" xfId="8" builtinId="41"/>
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
@@ -967,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,11 +1042,11 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1046,10 +1067,10 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -1066,8 +1087,8 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -1091,9 +1112,9 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="I6" s="26"/>
@@ -1107,19 +1128,19 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1130,19 +1151,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1153,19 +1174,19 @@
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="49" t="s">
+      <c r="L9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1176,19 +1197,19 @@
       <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="1"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1199,19 +1220,19 @@
       <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1222,19 +1243,19 @@
       <c r="B12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1245,27 +1266,27 @@
       <c r="B13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="54" t="s">
+      <c r="L13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -1276,8 +1297,9 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1285,18 +1307,18 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1307,9 +1329,9 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="60"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -1329,20 +1351,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1353,9 +1375,9 @@
       <c r="B19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -1375,9 +1397,9 @@
       <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="24"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="64"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -1389,9 +1411,9 @@
       <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1408,9 +1430,9 @@
       <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
@@ -1427,16 +1449,18 @@
       <c r="B23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="52" t="s">
+      <c r="L23" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -1445,9 +1469,9 @@
       <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="24"/>
       <c r="L24" s="36" t="s">
         <v>40</v>
@@ -1456,15 +1480,15 @@
       <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="65" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="24"/>
       <c r="L25" s="36" t="s">
         <v>42</v>
@@ -1479,8 +1503,9 @@
       <c r="B26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
@@ -1495,8 +1520,9 @@
       <c r="B27" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="63"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="24"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
@@ -1511,8 +1537,9 @@
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="63"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
@@ -1528,8 +1555,9 @@
       <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="63"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
       <c r="G29" s="24"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
@@ -1542,15 +1570,16 @@
       <c r="B30" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="49" t="s">
+      <c r="L30" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1559,8 +1588,9 @@
       <c r="B31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="62"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="38"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -1575,11 +1605,13 @@
       <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="62"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
       <c r="L32" s="36" t="s">
         <v>50</v>
       </c>
@@ -1591,20 +1623,22 @@
       <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="62"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="L33" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="26"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -1618,9 +1652,9 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="26"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -1631,15 +1665,15 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="68" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="1"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
@@ -1659,9 +1693,9 @@
       <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="26"/>
@@ -1681,8 +1715,9 @@
       <c r="B38" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="61"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1694,8 +1729,9 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="61"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1704,9 +1740,9 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="26"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -1717,15 +1753,15 @@
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -1745,9 +1781,9 @@
       <c r="B42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="1"/>
       <c r="G42" s="45"/>
       <c r="H42" s="26"/>
@@ -1767,9 +1803,9 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1783,9 +1819,9 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="26"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -1799,8 +1835,9 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="61"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1815,9 +1852,9 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -1832,9 +1869,9 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="26"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -1850,8 +1887,9 @@
         <v>59</v>
       </c>
       <c r="B48" s="17"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
       <c r="H48" s="26"/>
       <c r="J48" s="26"/>
       <c r="K48" s="17"/>
@@ -1867,8 +1905,9 @@
       <c r="B49" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="61"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2005,7 +2044,9 @@
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="67" t="s">
+        <v>81</v>
+      </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A99238-C4F6-4DFE-8FF1-753C58A75F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB30AB9-7481-4E7A-A3EA-CA44648E0CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="324" windowWidth="30936" windowHeight="16476" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>Description</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>We have meetings Monday, Tuesday, Wednesday and Thursday at 20:00 at Friday, Saturday and Sunday at 10:00. Problems that require help should be mentioned before the meeting and help will be given outside of the meetings.</t>
+  </si>
+  <si>
+    <t>Slightly behind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires extra attention </t>
+  </si>
+  <si>
+    <t>Game mechanic</t>
+  </si>
+  <si>
+    <t>Reset ball after hitting the water</t>
+  </si>
+  <si>
+    <t>Aaron (with René and Jean helping)</t>
+  </si>
+  <si>
+    <t>Allow the user to select a point along the starting position up to the location where the water was hit using a UI.</t>
+  </si>
+  <si>
+    <t>Detect if you're on sand or on grass</t>
+  </si>
+  <si>
+    <t>Have a function that returns wheter you are on grass or sand</t>
   </si>
 </sst>
 </file>
@@ -388,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +460,16 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -513,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,8 +556,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -610,6 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -618,7 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,6 +663,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -644,8 +696,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
+    <cellStyle name="Accent1" xfId="9" builtinId="29"/>
+    <cellStyle name="Accent4" xfId="8" builtinId="41"/>
     <cellStyle name="Awfull" xfId="6" xr:uid="{A1C64B14-41DC-448D-8E99-AECDB8DBF7EC}"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23" customBuiltin="1"/>
@@ -965,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,11 +1079,11 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1046,10 +1104,10 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -1066,8 +1124,8 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -1091,9 +1149,9 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="53"/>
-      <c r="E6" s="26"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="I6" s="26"/>
@@ -1107,19 +1165,19 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="53"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1130,65 +1188,65 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="26"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="53"/>
-      <c r="E10" s="26"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="1"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1199,19 +1257,19 @@
       <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="53"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1222,19 +1280,19 @@
       <c r="B12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="53"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1245,27 +1303,27 @@
       <c r="B13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="53"/>
-      <c r="E13" s="26"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="62" t="s">
+      <c r="L13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="48"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -1276,8 +1334,9 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1285,18 +1344,18 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="53"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1307,9 +1366,9 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="54"/>
-      <c r="E17" s="52"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -1329,20 +1388,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="53"/>
-      <c r="E18" s="52"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1353,9 +1412,9 @@
       <c r="B19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="53"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -1375,9 +1434,9 @@
       <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="59"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -1389,9 +1448,9 @@
       <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="54"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1408,9 +1467,9 @@
       <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="54"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
@@ -1427,16 +1486,18 @@
       <c r="B23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="55"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -1445,9 +1506,9 @@
       <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="54"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="24"/>
       <c r="L24" s="36" t="s">
         <v>40</v>
@@ -1456,15 +1517,15 @@
       <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="55"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="24"/>
       <c r="L25" s="36" t="s">
         <v>42</v>
@@ -1473,14 +1534,15 @@
       <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="73" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="51"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="55"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
@@ -1495,8 +1557,9 @@
       <c r="B27" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="24"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
@@ -1505,14 +1568,15 @@
       <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="73" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
@@ -1528,8 +1592,9 @@
       <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="51"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
       <c r="G29" s="24"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
@@ -1542,15 +1607,16 @@
       <c r="B30" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="57" t="s">
+      <c r="L30" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1559,8 +1625,9 @@
       <c r="B31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="38"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -1575,11 +1642,13 @@
       <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="54"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
       <c r="L32" s="36" t="s">
         <v>50</v>
       </c>
@@ -1591,20 +1660,22 @@
       <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="54"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="L33" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="48"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="53"/>
-      <c r="E34" s="26"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -1618,9 +1689,9 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="53"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -1631,15 +1702,15 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="54"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
@@ -1659,9 +1730,9 @@
       <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="48"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="53"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="26"/>
@@ -1681,8 +1752,9 @@
       <c r="B38" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1694,8 +1766,9 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="C39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1704,9 +1777,9 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="53"/>
-      <c r="E40" s="26"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -1717,15 +1790,15 @@
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="48"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="54"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -1745,9 +1818,9 @@
       <c r="B42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="48"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="54"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="1"/>
       <c r="G42" s="45"/>
       <c r="H42" s="26"/>
@@ -1767,9 +1840,9 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="48"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="53"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1783,9 +1856,9 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="48"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="53"/>
-      <c r="E44" s="26"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -1799,8 +1872,9 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1815,9 +1889,9 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="48"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -1832,9 +1906,9 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="48"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="53"/>
-      <c r="E47" s="26"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -1845,125 +1919,133 @@
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="48"/>
+        <v>83</v>
+      </c>
+      <c r="C48" s="49"/>
       <c r="D48" s="53"/>
-      <c r="H48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E48" s="53"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="56"/>
+    </row>
+    <row r="49" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="48"/>
+        <v>84</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="49"/>
       <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="26"/>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="56"/>
+    </row>
+    <row r="50" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="L50" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="56"/>
+    </row>
+    <row r="51" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="56"/>
+    </row>
+    <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="H52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="26"/>
+      <c r="L53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="26"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="17"/>
+      <c r="A54" s="29"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="H54" s="26"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
       <c r="J55" s="26"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -1972,40 +2054,40 @@
       <c r="H56" s="26"/>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
-    </row>
-    <row r="57" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>10</v>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
       <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
       <c r="J57" s="26"/>
-      <c r="O57" s="22"/>
-    </row>
-    <row r="58" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
-        <v>70</v>
-      </c>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="17"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
       <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
       <c r="J58" s="26"/>
+      <c r="K58" s="17"/>
       <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="22"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
@@ -2014,11 +2096,14 @@
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26"/>
-      <c r="O59" s="22"/>
-    </row>
-    <row r="60" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -2027,34 +2112,42 @@
       <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="26"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="9"/>
+    </row>
+    <row r="61" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="26"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="9"/>
+      <c r="O61" s="22"/>
+    </row>
+    <row r="62" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="26"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="22"/>
+    </row>
+    <row r="63" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="62" t="s">
+        <v>81</v>
+      </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
@@ -2063,12 +2156,13 @@
       <c r="H63" s="26"/>
       <c r="I63" s="26"/>
       <c r="J63" s="26"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
+      <c r="O63" s="22"/>
+    </row>
+    <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -2077,19 +2171,16 @@
       <c r="H64" s="26"/>
       <c r="I64" s="26"/>
       <c r="J64" s="26"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-    </row>
-    <row r="65" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="29"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
       <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
       <c r="J65" s="26"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
@@ -2106,28 +2197,35 @@
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="29"/>
-      <c r="B67" s="9"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
       <c r="J67" s="26"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
     </row>
-    <row r="69" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="29"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -2137,60 +2235,67 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="29"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="H70" s="26"/>
       <c r="J70" s="26"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-    </row>
-    <row r="71" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
       <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
       <c r="J71" s="26"/>
-    </row>
-    <row r="72" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
       <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
       <c r="J72" s="26"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
       <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="26"/>
-    </row>
-    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="A74" s="10"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="H74" s="26"/>
       <c r="J74" s="26"/>
-    </row>
-    <row r="75" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+    </row>
+    <row r="75" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
@@ -2199,27 +2304,66 @@
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
       <c r="J75" s="26"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
+    </row>
+    <row r="76" spans="1:14" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
-      <c r="H76"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="26"/>
-      <c r="J76"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
+      <c r="J76" s="26"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="78" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="10"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="79" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80"/>
+      <c r="I80" s="26"/>
+      <c r="J80"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB30AB9-7481-4E7A-A3EA-CA44648E0CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41CE82B-3D9A-4902-ABF3-A66A61936A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -298,9 +298,6 @@
   </si>
   <si>
     <t>Reset ball after hitting the water</t>
-  </si>
-  <si>
-    <t>Aaron (with René and Jean helping)</t>
   </si>
   <si>
     <t>Allow the user to select a point along the starting position up to the location where the water was hit using a UI.</t>
@@ -676,6 +673,10 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,10 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1025,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,11 +1076,11 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1104,10 +1101,10 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -1124,8 +1121,8 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
@@ -1173,11 +1170,11 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1196,11 +1193,11 @@
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1219,16 +1216,16 @@
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="41" t="s">
@@ -1242,11 +1239,11 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1265,11 +1262,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="70" t="s">
+      <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1288,11 +1285,11 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1311,11 +1308,11 @@
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="70" t="s">
+      <c r="L13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
@@ -1353,9 +1350,9 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1397,11 +1394,11 @@
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="67" t="s">
+      <c r="L18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1493,11 +1490,11 @@
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -1534,7 +1531,7 @@
       <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="40" t="s">
@@ -1568,7 +1565,7 @@
       <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="65" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -1612,11 +1609,11 @@
       <c r="E30" s="55"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1936,7 +1933,7 @@
         <v>84</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="53"/>
@@ -1946,7 +1943,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="L49" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M49" s="58"/>
       <c r="N49" s="58"/>
@@ -1954,7 +1951,7 @@
     </row>
     <row r="50" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>1</v>
@@ -1967,7 +1964,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="L50" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M50" s="58"/>
       <c r="N50" s="58"/>
@@ -2159,7 +2156,7 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B64"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41CE82B-3D9A-4902-ABF3-A66A61936A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C64D4-821B-46A9-BC17-D72064CB3416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12876" windowHeight="8616" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -670,13 +669,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,6 +692,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,23 +1076,23 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -1101,18 +1101,18 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
@@ -1121,16 +1121,16 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
       <c r="M4" s="43"/>
@@ -1146,9 +1146,9 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="I6" s="26"/>
@@ -1162,19 +1162,19 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="71" t="s">
+      <c r="L7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1185,19 +1185,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1208,42 +1208,42 @@
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="1"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1254,19 +1254,19 @@
       <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1277,19 +1277,19 @@
       <c r="B12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1300,27 +1300,27 @@
       <c r="B13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -1331,9 +1331,9 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1341,18 +1341,18 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1363,9 +1363,9 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -1385,20 +1385,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1409,9 +1409,9 @@
       <c r="B19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -1431,9 +1431,9 @@
       <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="59"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="58"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -1445,9 +1445,9 @@
       <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="59"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1464,9 +1464,9 @@
       <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="59"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
@@ -1477,24 +1477,24 @@
       <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="59"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -1503,9 +1503,9 @@
       <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="59"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="24"/>
       <c r="L24" s="36" t="s">
         <v>40</v>
@@ -1514,15 +1514,15 @@
       <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="59"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="24"/>
       <c r="L25" s="36" t="s">
         <v>42</v>
@@ -1531,15 +1531,15 @@
       <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="63" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="59"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
@@ -1554,9 +1554,9 @@
       <c r="B27" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="24"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
@@ -1565,15 +1565,15 @@
       <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="63" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
@@ -1589,9 +1589,9 @@
       <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
       <c r="G29" s="24"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
@@ -1604,16 +1604,16 @@
       <c r="B30" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1622,9 +1622,9 @@
       <c r="B31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="G31" s="38"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -1639,13 +1639,13 @@
       <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="L32" s="36" t="s">
         <v>50</v>
       </c>
@@ -1657,22 +1657,22 @@
       <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
       <c r="L33" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -1686,9 +1686,9 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -1699,15 +1699,15 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="73" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
@@ -1727,9 +1727,9 @@
       <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="26"/>
@@ -1749,9 +1749,9 @@
       <c r="B38" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1763,9 +1763,9 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1774,9 +1774,9 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -1793,9 +1793,9 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -1815,11 +1815,11 @@
       <c r="B42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="45"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
@@ -1837,9 +1837,9 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1853,9 +1853,9 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -1869,9 +1869,9 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1886,9 +1886,9 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -1903,9 +1903,9 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -1916,78 +1916,78 @@
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:16" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="56"/>
-    </row>
-    <row r="49" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="48"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="55"/>
+    </row>
+    <row r="49" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="L49" s="58" t="s">
+      <c r="L49" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="56"/>
-    </row>
-    <row r="50" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="55"/>
+    </row>
+    <row r="50" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="L50" s="58" t="s">
+      <c r="L50" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="56"/>
-    </row>
-    <row r="51" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="55"/>
+    </row>
+    <row r="51" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="56"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="55"/>
     </row>
     <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="17"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="H52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="17"/>
@@ -2003,9 +2003,9 @@
       <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2142,7 +2142,7 @@
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="61" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="26"/>
@@ -2156,7 +2156,7 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="62" t="s">
         <v>82</v>
       </c>
       <c r="B64"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19C64D4-821B-46A9-BC17-D72064CB3416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF7A41-F3FB-4EFD-B7AC-338C985FDEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12876" windowHeight="8616" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
+    <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>Description</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Have a function that returns wheter you are on grass or sand</t>
+  </si>
+  <si>
+    <t>René and Ivan</t>
   </si>
 </sst>
 </file>
@@ -640,6 +643,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -669,11 +673,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,9 +698,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,23 +1079,23 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="43"/>
       <c r="L2" s="43"/>
       <c r="M2" s="43"/>
@@ -1101,18 +1104,18 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="43"/>
       <c r="L3" s="43"/>
       <c r="M3" s="43"/>
@@ -1121,16 +1124,16 @@
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
       <c r="M4" s="43"/>
@@ -1146,9 +1149,9 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="I6" s="26"/>
@@ -1162,19 +1165,19 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1185,19 +1188,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1208,42 +1211,42 @@
       <c r="B9" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="1"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1254,19 +1257,19 @@
       <c r="B11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1277,19 +1280,19 @@
       <c r="B12" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="1"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1300,27 +1303,27 @@
       <c r="B13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
@@ -1331,9 +1334,9 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1341,18 +1344,18 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1363,9 +1366,9 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
@@ -1385,20 +1388,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1409,9 +1412,9 @@
       <c r="B19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -1431,9 +1434,9 @@
       <c r="B20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="58"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="59"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -1445,9 +1448,9 @@
       <c r="B21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="58"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
@@ -1464,9 +1467,9 @@
       <c r="B22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="58"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
@@ -1477,24 +1480,24 @@
       <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="58"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -1503,9 +1506,9 @@
       <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="58"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="24"/>
       <c r="L24" s="36" t="s">
         <v>40</v>
@@ -1514,15 +1517,15 @@
       <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="60" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="58"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="24"/>
       <c r="L25" s="36" t="s">
         <v>42</v>
@@ -1531,15 +1534,15 @@
       <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="58"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="24"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
@@ -1554,9 +1557,9 @@
       <c r="B27" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="24"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
@@ -1565,15 +1568,15 @@
       <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="65" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
@@ -1589,9 +1592,9 @@
       <c r="B29" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
       <c r="G29" s="24"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
@@ -1604,16 +1607,16 @@
       <c r="B30" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
@@ -1622,9 +1625,9 @@
       <c r="B31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="G31" s="38"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -1639,13 +1642,13 @@
       <c r="B32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
       <c r="L32" s="36" t="s">
         <v>50</v>
       </c>
@@ -1657,22 +1660,22 @@
       <c r="B33" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
       <c r="L33" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -1686,9 +1689,9 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -1699,15 +1702,15 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
@@ -1727,9 +1730,9 @@
       <c r="B37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="26"/>
@@ -1749,9 +1752,9 @@
       <c r="B38" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1763,9 +1766,9 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1774,9 +1777,9 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -1793,9 +1796,9 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -1815,11 +1818,11 @@
       <c r="B42" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
@@ -1837,9 +1840,9 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1853,9 +1856,9 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -1869,9 +1872,9 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1886,9 +1889,9 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="53"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="1"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -1903,9 +1906,9 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="26"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
@@ -1916,78 +1919,78 @@
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:16" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="55"/>
-    </row>
-    <row r="49" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="49"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="56"/>
+    </row>
+    <row r="49" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="L49" s="57" t="s">
+      <c r="L49" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="55"/>
-    </row>
-    <row r="50" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="56"/>
+    </row>
+    <row r="50" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="B50" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="L50" s="57" t="s">
+      <c r="L50" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="55"/>
-    </row>
-    <row r="51" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="56"/>
+    </row>
+    <row r="51" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="57"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="55"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="56"/>
     </row>
     <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="17"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
       <c r="H52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="17"/>
@@ -2003,9 +2006,9 @@
       <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2142,7 +2145,7 @@
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="62" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="26"/>
@@ -2156,7 +2159,7 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="64" t="s">
         <v>82</v>
       </c>
       <c r="B64"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF7A41-F3FB-4EFD-B7AC-338C985FDEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1AB34E-1C69-4F7D-9F56-D8C8CA610259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>Description</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>René and Ivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  </t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -546,6 +549,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -630,9 +646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -642,7 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -673,9 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -698,6 +707,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1025,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,67 +1097,67 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-    </row>
-    <row r="3" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+    <row r="2" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O5" s="2"/>
@@ -1149,10 +1167,10 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="26"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="26"/>
       <c r="I6" s="26"/>
       <c r="O6" s="13"/>
@@ -1165,19 +1183,19 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="26"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="71" t="s">
+      <c r="L7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1188,19 +1206,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="26"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1208,45 +1226,45 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1254,22 +1272,22 @@
       <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="26"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1277,22 +1295,22 @@
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="26"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="72" t="s">
+      <c r="L12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1300,31 +1318,31 @@
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="26"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -1334,9 +1352,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1344,18 +1363,18 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1366,10 +1385,10 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
@@ -1388,20 +1407,20 @@
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="1"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1409,16 +1428,16 @@
       <c r="A19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="26"/>
       <c r="K19" s="13"/>
       <c r="L19" s="12"/>
@@ -1431,12 +1450,13 @@
       <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="59"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="53"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
@@ -1445,13 +1465,13 @@
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -1464,13 +1484,13 @@
       <c r="A22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="16"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -1480,36 +1500,36 @@
       <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="24"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="24"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="70" t="s">
+      <c r="L23" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="24"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="L24" s="36" t="s">
         <v>40</v>
       </c>
@@ -1517,16 +1537,16 @@
       <c r="N24" s="36"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="24"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="L25" s="36" t="s">
         <v>42</v>
       </c>
@@ -1534,16 +1554,16 @@
       <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="24"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="L26" s="36" t="s">
         <v>43</v>
       </c>
@@ -1554,13 +1574,14 @@
       <c r="A27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="24"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="72"/>
       <c r="L27" s="36" t="s">
         <v>45</v>
       </c>
@@ -1568,16 +1589,16 @@
       <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="24"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="24"/>
       <c r="L28" s="36" t="s">
         <v>47</v>
@@ -1589,13 +1610,15 @@
       <c r="A29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="24"/>
+      <c r="H29" s="72"/>
       <c r="L29" s="36" t="s">
         <v>48</v>
       </c>
@@ -1604,31 +1627,33 @@
       <c r="A30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="G31" s="38"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="L31" s="36" t="s">
@@ -1639,16 +1664,16 @@
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
       <c r="L32" s="36" t="s">
         <v>50</v>
       </c>
@@ -1657,26 +1682,26 @@
       <c r="A33" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
       <c r="L33" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -1689,10 +1714,10 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
@@ -1702,16 +1727,16 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="73" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
@@ -1727,13 +1752,13 @@
       <c r="A37" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="1"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
       <c r="G37" s="1"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
@@ -1749,12 +1774,13 @@
       <c r="A38" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
@@ -1766,9 +1792,10 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1777,10 +1804,10 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="26"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
@@ -1796,10 +1823,10 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="51"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
@@ -1815,14 +1842,14 @@
       <c r="A42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="45"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
@@ -1840,10 +1867,10 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="1"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="J43" s="26"/>
@@ -1856,10 +1883,10 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="26"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
@@ -1872,9 +1899,10 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1889,11 +1917,11 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="26"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -1906,10 +1934,10 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="26"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
@@ -1919,78 +1947,81 @@
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:16" s="57" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="56"/>
-    </row>
-    <row r="49" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="47"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="54"/>
+    </row>
+    <row r="49" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="1"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="L49" s="58" t="s">
+      <c r="L49" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="56"/>
-    </row>
-    <row r="50" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="54"/>
+    </row>
+    <row r="50" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="1"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="L50" s="58" t="s">
+      <c r="L50" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="56"/>
-    </row>
-    <row r="51" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="54"/>
+    </row>
+    <row r="51" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="29"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="56"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="54"/>
     </row>
     <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="17"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
       <c r="H52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="17"/>
@@ -2006,9 +2037,10 @@
       <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2021,7 +2053,9 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="H54" s="26"/>
@@ -2033,12 +2067,12 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
       <c r="J55" s="26"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -2128,7 +2162,7 @@
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="26"/>
@@ -2145,7 +2179,7 @@
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="60" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="26"/>
@@ -2159,7 +2193,7 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="61" t="s">
         <v>82</v>
       </c>
       <c r="B64"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1AB34E-1C69-4F7D-9F56-D8C8CA610259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A4C5F-A653-4D43-AD4C-32220E12C794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -550,9 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
@@ -575,7 +577,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,7 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -689,6 +690,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,14 +717,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1043,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1097,67 +1103,67 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-    </row>
-    <row r="3" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+    <row r="2" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O5" s="2"/>
@@ -1167,11 +1173,11 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="26"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="I6" s="26"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1183,19 +1189,19 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1206,19 +1212,19 @@
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1226,22 +1232,22 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1249,45 +1255,45 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="26"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="26"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="1"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1295,22 +1301,22 @@
       <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1318,32 +1324,32 @@
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="1"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -1351,11 +1357,12 @@
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
+      <c r="A15" s="28"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="26"/>
       <c r="J15" s="26"/>
     </row>
@@ -1363,18 +1370,18 @@
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="26"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1385,11 +1392,11 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -1401,41 +1408,41 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="26"/>
@@ -1450,213 +1457,220 @@
       <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="53"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-    </row>
-    <row r="21" spans="1:16" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="48"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="16"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="16"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
       <c r="J22" s="16"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="24"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="67" t="s">
+      <c r="L23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="L24" s="36" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="52"/>
+      <c r="L24" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="L25" s="36" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="52"/>
+      <c r="L25" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="L26" s="36" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="63"/>
+      <c r="L26" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="72"/>
-      <c r="L27" s="36" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="63"/>
+      <c r="L27" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="24"/>
-      <c r="L28" s="36" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="63"/>
+      <c r="L28" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
     </row>
     <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="72"/>
-      <c r="L29" s="36" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="63"/>
+      <c r="L29" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="24"/>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="71"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="35" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1664,17 +1678,17 @@
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="L32" s="36" t="s">
+      <c r="C32" s="49"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="L32" s="35" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1682,27 +1696,27 @@
       <c r="A33" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="L33" s="36" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="L33" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
@@ -1714,11 +1728,11 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="26"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -1727,75 +1741,76 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="26"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="36" t="s">
+      <c r="L36" s="35" t="s">
         <v>65</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="1"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="26"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="35" t="s">
         <v>66</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="1"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="1"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="36" t="s">
+      <c r="L38" s="35" t="s">
         <v>67</v>
       </c>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
+      <c r="A39" s="29"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1804,11 +1819,11 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="26"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -1823,11 +1838,11 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="26"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
@@ -1839,17 +1854,17 @@
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="11"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="26"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
@@ -1861,17 +1876,17 @@
       <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="1"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="1"/>
       <c r="J43" s="26"/>
       <c r="L43" s="12" t="s">
@@ -1881,13 +1896,13 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="26"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="26"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
@@ -1899,10 +1914,11 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="26"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
@@ -1911,17 +1927,17 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="11"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
@@ -1933,12 +1949,12 @@
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="26"/>
+      <c r="A47" s="28"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
@@ -1947,81 +1963,84 @@
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:16" s="55" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" s="54" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="54"/>
-    </row>
-    <row r="49" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="53"/>
+    </row>
+    <row r="49" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="1"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="L49" s="56" t="s">
+      <c r="L49" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="54"/>
-    </row>
-    <row r="50" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="53"/>
+    </row>
+    <row r="50" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="1"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="L50" s="56" t="s">
+      <c r="L50" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="54"/>
-    </row>
-    <row r="51" spans="1:15" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="54"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="53"/>
+    </row>
+    <row r="51" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="53"/>
     </row>
     <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="17"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="17"/>
@@ -2031,17 +2050,17 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="26"/>
@@ -2053,7 +2072,7 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>89</v>
       </c>
       <c r="C54" s="26"/>
@@ -2065,21 +2084,21 @@
       <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="28"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
       <c r="J55" s="26"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -2162,7 +2181,7 @@
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="26"/>
@@ -2179,7 +2198,7 @@
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="59" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="26"/>
@@ -2193,7 +2212,7 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B64"/>
@@ -2210,7 +2229,7 @@
       <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="9"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -2221,7 +2240,7 @@
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="9"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -2232,7 +2251,7 @@
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
+      <c r="A67" s="28"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
@@ -2246,7 +2265,7 @@
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
+      <c r="A68" s="28"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -2260,7 +2279,7 @@
       <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
+      <c r="A69" s="28"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
@@ -2274,7 +2293,7 @@
       <c r="N69" s="12"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="9"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -2285,7 +2304,7 @@
       <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="9"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -2296,7 +2315,7 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
+      <c r="A72" s="28"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="H72" s="26"/>
@@ -2306,7 +2325,7 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
+      <c r="A73" s="28"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
@@ -2320,7 +2339,7 @@
       <c r="N73" s="21"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
+      <c r="A74" s="28"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="H74" s="26"/>
@@ -2353,7 +2372,7 @@
       <c r="N76" s="18"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
+      <c r="A77" s="28"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
       <c r="H77" s="26"/>

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8A4C5F-A653-4D43-AD4C-32220E12C794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA541BB-DF89-41C2-9B49-1F44667A6954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -577,7 +577,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -691,11 +691,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,13 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1049,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,11 +1100,11 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
@@ -1128,10 +1125,10 @@
       <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -1148,8 +1145,8 @@
       <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -1178,6 +1175,7 @@
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="26"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1194,14 +1192,14 @@
       <c r="E7" s="51"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
-      <c r="H7" s="26"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
@@ -1217,14 +1215,14 @@
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="1"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1240,14 +1238,14 @@
       <c r="E9" s="50"/>
       <c r="F9" s="51"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1263,14 +1261,14 @@
       <c r="E10" s="50"/>
       <c r="F10" s="51"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="26"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
@@ -1286,14 +1284,14 @@
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
@@ -1308,15 +1306,15 @@
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
       <c r="F12" s="51"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
@@ -1332,14 +1330,14 @@
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
@@ -1350,7 +1348,7 @@
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="26"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="O14" s="13"/>
@@ -1363,7 +1361,7 @@
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="50"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1375,13 +1373,13 @@
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="26"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1397,7 +1395,7 @@
       <c r="E17" s="51"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="8"/>
@@ -1419,15 +1417,15 @@
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1443,7 +1441,7 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="1"/>
       <c r="J19" s="26"/>
       <c r="K19" s="13"/>
@@ -1465,6 +1463,7 @@
       <c r="E20" s="56"/>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
@@ -1481,7 +1480,7 @@
       <c r="E21" s="56"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="L21" s="33"/>
@@ -1500,7 +1499,7 @@
       <c r="E22" s="56"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
-      <c r="H22" s="26"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="26"/>
       <c r="J22" s="16"/>
       <c r="L22" s="34"/>
@@ -1519,13 +1518,13 @@
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="1"/>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -1539,6 +1538,7 @@
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
       <c r="L24" s="35" t="s">
         <v>40</v>
       </c>
@@ -1557,6 +1557,7 @@
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
       <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
       <c r="L25" s="35" t="s">
         <v>42</v>
       </c>
@@ -1574,8 +1575,8 @@
       <c r="D26" s="52"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
       <c r="L26" s="35" t="s">
         <v>43</v>
       </c>
@@ -1593,8 +1594,8 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="63"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
       <c r="L27" s="35" t="s">
         <v>45</v>
       </c>
@@ -1613,7 +1614,7 @@
       <c r="E28" s="52"/>
       <c r="F28" s="56"/>
       <c r="G28" s="56"/>
-      <c r="H28" s="63"/>
+      <c r="H28" s="65"/>
       <c r="L28" s="35" t="s">
         <v>47</v>
       </c>
@@ -1632,7 +1633,7 @@
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
       <c r="G29" s="56"/>
-      <c r="H29" s="63"/>
+      <c r="H29" s="65"/>
       <c r="L29" s="35" t="s">
         <v>48</v>
       </c>
@@ -1649,12 +1650,12 @@
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
       <c r="G30" s="56"/>
-      <c r="H30" s="24"/>
-      <c r="L30" s="66" t="s">
+      <c r="H30" s="56"/>
+      <c r="L30" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
@@ -1667,8 +1668,8 @@
       <c r="D31" s="51"/>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="24"/>
       <c r="L31" s="35" t="s">
         <v>49</v>
@@ -1686,7 +1687,7 @@
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
       <c r="G32" s="50"/>
-      <c r="H32" s="45"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="45"/>
       <c r="L32" s="35" t="s">
         <v>50</v>
@@ -1704,7 +1705,7 @@
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
       <c r="G33" s="50"/>
-      <c r="H33" s="45"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="45"/>
       <c r="L33" s="35" t="s">
         <v>37</v>
@@ -1717,7 +1718,7 @@
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
-      <c r="H34" s="26"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="13"/>
@@ -1733,7 +1734,7 @@
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="50"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
       <c r="K35" s="13"/>
@@ -1741,7 +1742,7 @@
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -1752,7 +1753,7 @@
       <c r="E36" s="51"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="26"/>
       <c r="J36" s="26"/>
       <c r="K36" s="13"/>
@@ -1763,7 +1764,7 @@
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
@@ -1774,7 +1775,7 @@
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="26"/>
       <c r="J37" s="26"/>
       <c r="K37" s="13"/>
@@ -1796,7 +1797,7 @@
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="51"/>
       <c r="K38" s="25"/>
       <c r="L38" s="35" t="s">
         <v>67</v>
@@ -1811,6 +1812,7 @@
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1824,7 +1826,7 @@
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="13"/>
@@ -1843,7 +1845,7 @@
       <c r="E41" s="51"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="50"/>
       <c r="I41" s="26"/>
       <c r="J41" s="26"/>
       <c r="K41" s="13"/>
@@ -1864,8 +1866,8 @@
       <c r="D42" s="51"/>
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="26"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="13"/>
@@ -1887,7 +1889,7 @@
       <c r="E43" s="62"/>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="51"/>
       <c r="J43" s="26"/>
       <c r="L43" s="12" t="s">
         <v>62</v>
@@ -1903,7 +1905,7 @@
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="50"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="L44" s="12"/>
@@ -1919,7 +1921,7 @@
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="50"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -1937,8 +1939,8 @@
       <c r="D46" s="50"/>
       <c r="E46" s="51"/>
       <c r="F46" s="51"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="26"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="L46" s="12" t="s">
@@ -1955,7 +1957,7 @@
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="50"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="L47" s="12"/>
@@ -1972,6 +1974,7 @@
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
       <c r="L48" s="55"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
@@ -1989,7 +1992,7 @@
       <c r="E49" s="50"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="1"/>
       <c r="L49" s="55" t="s">
         <v>85</v>
@@ -2010,7 +2013,7 @@
       <c r="E50" s="50"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="1"/>
       <c r="L50" s="55" t="s">
         <v>87</v>
@@ -2026,6 +2029,7 @@
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
       <c r="L51" s="55"/>
       <c r="M51" s="55"/>
       <c r="N51" s="55"/>
@@ -2041,7 +2045,7 @@
       <c r="E52" s="50"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
-      <c r="H52" s="26"/>
+      <c r="H52" s="50"/>
       <c r="J52" s="26"/>
       <c r="K52" s="17"/>
       <c r="L52" s="18"/>
@@ -2061,7 +2065,7 @@
       <c r="E53" s="50"/>
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="51"/>
       <c r="I53" s="1"/>
       <c r="J53" s="26"/>
       <c r="L53" s="14" t="s">

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA541BB-DF89-41C2-9B49-1F44667A6954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CEC4EA-EE77-43A7-B5DC-41BCD7B6AB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1981,7 +1981,7 @@
       <c r="O48" s="53"/>
     </row>
     <row r="49" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="54" t="s">

--- a/Organization/Planning.xlsx
+++ b/Organization/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steem\Desktop\Study\Project 1-2\Organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CEC4EA-EE77-43A7-B5DC-41BCD7B6AB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CDA5C8-C95D-4E00-BCA6-5736F06C78BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="396" windowWidth="30936" windowHeight="16416" xr2:uid="{4499D1A8-1007-470A-BA2D-B0C0C3C062AE}"/>
   </bookViews>
@@ -626,9 +626,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -642,9 +639,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="7"/>
@@ -659,7 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="11" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -687,9 +680,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -719,6 +709,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF05E52F-C67C-4F07-831F-FD1EB2BF79BD}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,67 +1100,67 @@
         <v>44006</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+    <row r="2" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-    </row>
-    <row r="4" spans="1:16" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O5" s="2"/>
@@ -1170,13 +1170,13 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
     </row>
@@ -1187,42 +1187,42 @@
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="26"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="26"/>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="26"/>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
@@ -1230,22 +1230,22 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="26"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="26"/>
-      <c r="L9" s="68" t="s">
+      <c r="L9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="25"/>
       <c r="P9" s="13"/>
     </row>
@@ -1253,133 +1253,134 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="26"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="26"/>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="26"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="26"/>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" s="14" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="26"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="26"/>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="26"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="26"/>
-      <c r="L13" s="73" t="s">
+      <c r="L13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="26"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="26"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="26"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
@@ -1390,13 +1391,13 @@
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="26"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9" t="s">
@@ -1406,26 +1407,26 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="26"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="26"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="70" t="s">
+      <c r="L18" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
@@ -1433,16 +1434,16 @@
       <c r="A19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="1"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="26"/>
       <c r="K19" s="13"/>
       <c r="L19" s="12"/>
@@ -1455,223 +1456,231 @@
       <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-    </row>
-    <row r="21" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="45"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="16"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="16"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="26"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="16"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="1"/>
-      <c r="L23" s="71" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="L23" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
     </row>
     <row r="24" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="L24" s="35" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="L24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="L25" s="35" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="L25" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="L26" s="35" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="49"/>
+      <c r="L26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="L27" s="35" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="49"/>
+      <c r="L27" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="65"/>
-      <c r="L28" s="35" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="49"/>
+      <c r="L28" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="65"/>
-      <c r="L29" s="35" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="49"/>
+      <c r="L29" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="16" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="L30" s="68" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="49"/>
+      <c r="L30" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="24"/>
-      <c r="L31" s="35" t="s">
+      <c r="C31" s="46"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="L31" s="34" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1679,17 +1688,17 @@
       <c r="A32" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="45"/>
-      <c r="L32" s="35" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="L32" s="34" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1697,29 +1706,29 @@
       <c r="A33" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="45"/>
-      <c r="L33" s="35" t="s">
+      <c r="C33" s="46"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="L33" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="26"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="26"/>
       <c r="K34" s="13"/>
       <c r="O34" s="13"/>
@@ -1729,77 +1738,78 @@
       <c r="A35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="26"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="26"/>
       <c r="K35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="59" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="26"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="26"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="35" t="s">
+      <c r="L36" s="34" t="s">
         <v>65</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="26"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="26"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="35" t="s">
+      <c r="L37" s="34" t="s">
         <v>66</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="47"/>
       <c r="K38" s="25"/>
-      <c r="L38" s="35" t="s">
+      <c r="L38" s="34" t="s">
         <v>67</v>
       </c>
       <c r="O38" s="25"/>
@@ -1807,12 +1817,13 @@
     </row>
     <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
       <c r="K39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
@@ -1821,13 +1832,13 @@
       <c r="A40" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="26"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="26"/>
       <c r="K40" s="13"/>
       <c r="O40" s="13"/>
@@ -1840,13 +1851,13 @@
       <c r="B41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="26"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="26"/>
       <c r="K41" s="13"/>
       <c r="L41" s="14" t="s">
@@ -1859,16 +1870,16 @@
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="26"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="26"/>
       <c r="K42" s="13"/>
       <c r="L42" s="14" t="s">
@@ -1878,18 +1889,19 @@
       <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="51"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="26"/>
       <c r="L43" s="12" t="s">
         <v>62</v>
@@ -1900,13 +1912,13 @@
     <row r="44" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="26"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="26"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -1916,12 +1928,13 @@
       <c r="A45" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
       <c r="J45" s="26"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -1935,13 +1948,13 @@
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="26"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
       <c r="J46" s="26"/>
       <c r="L46" s="12" t="s">
         <v>61</v>
@@ -1952,100 +1965,103 @@
     </row>
     <row r="47" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="26"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
       <c r="J47" s="26"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:16" s="54" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:16" s="51" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="53"/>
-    </row>
-    <row r="49" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="43"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="50"/>
+    </row>
+    <row r="49" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="1"/>
-      <c r="L49" s="55" t="s">
+      <c r="C49" s="43"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="L49" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="53"/>
-    </row>
-    <row r="50" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="50"/>
+    </row>
+    <row r="50" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="1"/>
-      <c r="L50" s="55" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="L50" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="53"/>
-    </row>
-    <row r="51" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="50"/>
+    </row>
+    <row r="51" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="53"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="17"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
       <c r="J52" s="26"/>
       <c r="K52" s="17"/>
       <c r="L52" s="18"/>
@@ -2054,19 +2070,19 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="1"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
       <c r="J53" s="26"/>
       <c r="L53" s="14" t="s">
         <v>60</v>
@@ -2090,12 +2106,12 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="26"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -2185,7 +2201,7 @@
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="26"/>
@@ -2202,7 +2218,7 @@
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="56" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="26"/>
@@ -2216,7 +2232,7 @@
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="57" t="s">
         <v>82</v>
       </c>
       <c r="B64"/>
